--- a/jade/default_settings/Config.xlsx
+++ b/jade/default_settings/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="MAIN Config."/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="88">
   <si>
     <t>Suffix</t>
   </si>
@@ -46,10 +46,10 @@
     <t>FENDL 2.1c</t>
   </si>
   <si>
-    <t>/home/mcnp/xs/xsdir_mcnp6.2</t>
-  </si>
-  <si>
-    <t>/home/mcnp/xs/xsdir_mcnp6.2.serp</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>30c</t>
@@ -58,61 +58,28 @@
     <t>FENDL 3.0</t>
   </si>
   <si>
-    <t>/home/mcnp/xs/xsdir_mcnp6.2_old</t>
-  </si>
-  <si>
-    <t>/home/mcnp/xs/xsdir_mcnp6.2_old.serp</t>
-  </si>
-  <si>
     <t>31c</t>
   </si>
   <si>
     <t>FENDL 3.1d</t>
   </si>
   <si>
-    <t>/home/mcnp/xs/xsdir_mcnp6.2_jeff33_endfb71_fendl32b_irdff105_tt</t>
-  </si>
-  <si>
-    <t>/home/mcnp/xs/xsdir_mcnp6.2_jeff33_endfb71_fendl32b_irdff105_tt.serp</t>
-  </si>
-  <si>
-    <t>/home/sbradnam/Software/NEUTRONS/openmc/data/fendl-3.1d-hdf5/cross_sections.xml</t>
-  </si>
-  <si>
     <t>32c</t>
   </si>
   <si>
-    <t>FENDL 3.2 beta</t>
-  </si>
-  <si>
-    <t>/home/mcnp/xs/xsdir_mcnp6.2_fendl32b_rw</t>
-  </si>
-  <si>
-    <t>/home/mcnp/xs/xsdir_mcnp6.2_fendl32b_rw.serp</t>
+    <t>FENDL 3.2b</t>
   </si>
   <si>
     <t>70c</t>
   </si>
   <si>
-    <t>ENDF VII</t>
+    <t>ENDF/B-VII</t>
   </si>
   <si>
     <t>00c</t>
   </si>
   <si>
-    <t>ENDF VIII</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>/home/mcnp/xs/xsdir_mcnp6.2_endfb8</t>
-  </si>
-  <si>
-    <t>/home/mcnp/xs/xsdir_mcnp6.2_endfb8.serp</t>
-  </si>
-  <si>
-    <t>/home/sbradnam/Software/NEUTRONS/openmc/data/endfb80_hdf5/cross_sections.xml</t>
+    <t>ENDF/B-VIII</t>
   </si>
   <si>
     <t>Computational benchmark additional options</t>
@@ -265,7 +232,7 @@
     <t>MCNP executable</t>
   </si>
   <si>
-    <t>/home/mcnp/mcnpexecs/drake/mcnp6v2_ifort2018_n1s</t>
+    <t>/path/to/your/mcnp_executable</t>
   </si>
   <si>
     <t>MCNP config</t>
@@ -277,7 +244,7 @@
     <t>Serpent executable</t>
   </si>
   <si>
-    <t>/home/sbradnam/Software/freia/Serpent2_src/v2.1.32_ccfe/sss2</t>
+    <t>/path/to/your/serpent_executable</t>
   </si>
   <si>
     <t>Serpent config</t>
@@ -289,7 +256,7 @@
     <t>OpenMC executable</t>
   </si>
   <si>
-    <t>/home/sbradnam/Software/drake/DAG_OPENMC_021222/openmc/build/bin/openmc</t>
+    <t>/path/to/your/openmc_executable</t>
   </si>
   <si>
     <t>OpenMC config</t>
@@ -313,13 +280,7 @@
     <t>Batch system</t>
   </si>
   <si>
-    <t>sbatch</t>
-  </si>
-  <si>
     <t>Batch file</t>
-  </si>
-  <si>
-    <t>Job_Script_Templates/Slurmtemplate.sh</t>
   </si>
 </sst>
 </file>
@@ -346,7 +307,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -513,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -524,6 +485,12 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
@@ -549,9 +516,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -924,111 +888,105 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="37.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="25" width="73.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="37.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="26" width="73.57642857142856" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="36">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="28"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25">
+      <c r="A2" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25">
+      <c r="A3" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="23.25">
+      <c r="A4" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="23.25">
+      <c r="A5" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="23.25">
+      <c r="A6" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="23.25">
+      <c r="A7" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="27"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25">
-      <c r="A2" s="28" t="s">
+      <c r="B7" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="29" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="23.25">
+      <c r="A8" s="34" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25">
-      <c r="A3" s="30" t="s">
+      <c r="B8" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="23.25">
+      <c r="A9" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B9" s="33"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="23.25">
+      <c r="A10" s="34" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="23.25">
-      <c r="A4" s="30" t="s">
+      <c r="B10" s="33"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="23.25">
+      <c r="A11" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B11" s="33"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="23.25">
+      <c r="A12" s="34" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="23.25">
-      <c r="A5" s="30" t="s">
+      <c r="B12" s="33"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24">
+      <c r="A13" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="23.25">
-      <c r="A6" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="23.25">
-      <c r="A7" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="23.25">
-      <c r="A8" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="32"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="23.25">
-      <c r="A9" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="32"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="23.25">
-      <c r="A10" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="23.25">
-      <c r="A11" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="32">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="23.25">
-      <c r="A12" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24">
-      <c r="A13" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>100</v>
-      </c>
+      <c r="B13" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1049,289 +1007,289 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="24" width="38.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="25" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="25" width="38.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="10.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="9.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="9.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="9.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="16" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="26" width="13.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="27">
+      <c r="A2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="27">
-      <c r="A2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="22" t="s">
+      <c r="E4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="14">
+        <v>10000</v>
+      </c>
+      <c r="J4" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="14">
+        <v>50000000</v>
+      </c>
+      <c r="J5" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="14">
+        <v>10000000</v>
+      </c>
+      <c r="J6" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="14">
+        <v>10000000</v>
+      </c>
+      <c r="J7" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="14">
+        <v>100000000</v>
+      </c>
+      <c r="J8" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="14">
+        <v>500000000</v>
+      </c>
+      <c r="J9" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="12">
-        <v>10000</v>
-      </c>
-      <c r="J4" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="22" t="s">
+      <c r="B10" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="12">
-        <v>50000000</v>
-      </c>
-      <c r="J5" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="J6" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="J7" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="12">
+      <c r="C10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="14">
         <v>100000000</v>
       </c>
-      <c r="J8" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="12">
-        <v>500000000</v>
-      </c>
-      <c r="J9" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="12">
-        <v>100000000</v>
-      </c>
-      <c r="J10" s="23"/>
+      <c r="J10" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1349,441 +1307,441 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="42.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="42.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="9.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="9.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="9.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="9.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="16" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="13.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="35.25">
+      <c r="A1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25">
+      <c r="A2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="27">
-      <c r="A2" s="7" t="s">
+      <c r="I4" s="14">
+        <v>10000000</v>
+      </c>
+      <c r="J4" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="9" t="s">
+      <c r="B5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="14">
+        <v>500000000</v>
+      </c>
+      <c r="J5" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="B6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="C6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="14">
+        <v>100</v>
+      </c>
+      <c r="J6" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="B7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="C7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="14">
+        <v>100</v>
+      </c>
+      <c r="J7" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="14">
+        <v>100</v>
+      </c>
+      <c r="J8" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="C9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="14">
+        <v>100</v>
+      </c>
+      <c r="J9" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="J4" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="14">
+        <v>100</v>
+      </c>
+      <c r="J10" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="12">
-        <v>500000000</v>
-      </c>
-      <c r="J5" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="11" t="s">
+      <c r="B11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="14">
+        <v>100</v>
+      </c>
+      <c r="J11" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="12">
+      <c r="B12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="14">
         <v>100</v>
       </c>
-      <c r="J6" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="J12" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="12">
+      <c r="B13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="14">
         <v>100</v>
       </c>
-      <c r="J7" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="J13" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="12">
+      <c r="B14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="14">
         <v>100</v>
       </c>
-      <c r="J8" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="J14" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="12">
+      <c r="B15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="14">
         <v>100</v>
       </c>
-      <c r="J9" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="12">
-        <v>100</v>
-      </c>
-      <c r="J10" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="12">
-        <v>100</v>
-      </c>
-      <c r="J11" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="12">
-        <v>100</v>
-      </c>
-      <c r="J12" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="12">
-        <v>100</v>
-      </c>
-      <c r="J13" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="12">
-        <v>100</v>
-      </c>
-      <c r="J14" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="12">
-        <v>100</v>
-      </c>
-      <c r="J15" s="11"/>
+      <c r="J15" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1805,13 +1763,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="64.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="64.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="75.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="64.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="64.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="64.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="75.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="64.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1844,17 +1802,15 @@
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="G2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2" t="s">
@@ -1864,98 +1820,64 @@
         <v>12</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="G3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="G5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="G6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jade/default_settings/Config.xlsx
+++ b/jade/default_settings/Config.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\avalenti\lukas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3F7828-7D11-4C92-8D1F-4539B53EA7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="MAIN Config."/>
-    <sheet r:id="rId2" sheetId="2" name="Computational benchmarks"/>
-    <sheet r:id="rId3" sheetId="3" name="Experimental benchmarks"/>
-    <sheet r:id="rId4" sheetId="4" name="Libraries"/>
+    <sheet name="MAIN Config." sheetId="1" r:id="rId1"/>
+    <sheet name="Computational benchmarks" sheetId="2" r:id="rId2"/>
+    <sheet name="Experimental benchmarks" sheetId="3" r:id="rId3"/>
+    <sheet name="Libraries" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="88">
   <si>
     <t>Suffix</t>
   </si>
@@ -286,7 +292,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
@@ -314,14 +320,14 @@
     <font>
       <b/>
       <sz val="24"/>
-      <color rgb="FF00b050"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF00b050"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -339,7 +345,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,7 +354,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFd9d9d9"/>
+        <fgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -369,16 +381,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -387,7 +399,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -399,7 +411,7 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -474,125 +486,128 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="39">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -603,10 +618,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -644,71 +659,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -736,7 +751,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -759,11 +774,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -772,13 +787,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -788,7 +803,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -797,7 +812,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -806,7 +821,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -814,10 +829,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -882,111 +897,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="37.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="26" width="73.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="37.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.5703125" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="36">
+    <row r="1" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="28"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="23.25">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="23.25">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="23.25">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="23.25">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="23.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="23.25">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="23.25">
-      <c r="A10" s="34" t="s">
+      <c r="B9" s="23"/>
+    </row>
+    <row r="10" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="23.25">
-      <c r="A11" s="34" t="s">
+      <c r="B10" s="23"/>
+    </row>
+    <row r="11" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="23.25">
-      <c r="A12" s="34" t="s">
+      <c r="B11" s="23"/>
+    </row>
+    <row r="12" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="24">
-      <c r="A13" s="35" t="s">
+      <c r="B12" s="23"/>
+    </row>
+    <row r="13" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -997,299 +1014,287 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="25" width="38.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="26" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="38" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="27">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="21" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="10">
         <v>10000</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="16">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="C5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="10">
         <v>50000000</v>
       </c>
-      <c r="J5" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="23" t="s">
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="13" t="s">
+      <c r="C6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="10">
         <v>10000000</v>
       </c>
-      <c r="J6" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="23" t="s">
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="13" t="s">
+      <c r="C7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="10">
         <v>10000000</v>
       </c>
-      <c r="J7" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="23" t="s">
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="14">
+      <c r="C8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="10">
         <v>100000000</v>
       </c>
-      <c r="J8" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="23" t="s">
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="14">
+      <c r="C9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="10">
         <v>500000000</v>
       </c>
-      <c r="J9" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="23" t="s">
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="14">
+      <c r="C10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="10">
         <v>100000000</v>
       </c>
-      <c r="J10" s="24"/>
+      <c r="J10" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1301,447 +1306,440 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="42.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="42.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="35.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="30"/>
+    </row>
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="11" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="34"/>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="C4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="10">
         <v>10000000</v>
       </c>
-      <c r="J4" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="13" t="s">
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="14">
+      <c r="C5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="10">
         <v>500000000</v>
       </c>
-      <c r="J5" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="13" t="s">
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="14">
+      <c r="C6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="10">
         <v>100</v>
       </c>
-      <c r="J6" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="13" t="s">
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="14">
+      <c r="C7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="10">
         <v>100</v>
       </c>
-      <c r="J7" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="13" t="s">
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="14">
+      <c r="C8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="10">
         <v>100</v>
       </c>
-      <c r="J8" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="13" t="s">
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="14">
+      <c r="C9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="10">
         <v>100</v>
       </c>
-      <c r="J9" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="13" t="s">
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="14">
+      <c r="C10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="10">
         <v>100</v>
       </c>
-      <c r="J10" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="13" t="s">
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="14">
+      <c r="C11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="10">
         <v>100</v>
       </c>
-      <c r="J11" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="13" t="s">
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="14">
+      <c r="C12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="10">
         <v>100</v>
       </c>
-      <c r="J12" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="13" t="s">
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="14">
+      <c r="C13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="10">
         <v>100</v>
       </c>
-      <c r="J13" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="13" t="s">
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="14">
+      <c r="C14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="10">
         <v>100</v>
       </c>
-      <c r="J14" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="13" t="s">
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="14">
+      <c r="C15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="10">
         <v>100</v>
       </c>
-      <c r="J15" s="13"/>
+      <c r="J15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1753,7 +1751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1763,16 +1761,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="64.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="64.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="75.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="64.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="64.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.42578125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1795,7 +1792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1812,7 +1809,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1825,7 +1822,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1838,7 +1835,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1851,7 +1848,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1864,7 +1861,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>

--- a/jade/default_settings/Config.xlsx
+++ b/jade/default_settings/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\avalenti\lukas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JADE-linux\Code\jade\default_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3F7828-7D11-4C92-8D1F-4539B53EA7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D2B8DD-D202-4B4E-84A6-D7AA9EAF2538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="930" windowWidth="18000" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="88">
   <si>
     <t>Suffix</t>
   </si>
@@ -345,7 +345,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,12 +355,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -486,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -494,12 +488,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -560,6 +552,9 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -588,12 +583,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -909,101 +898,101 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.5703125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="21"/>
     </row>
     <row r="10" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="21"/>
     </row>
     <row r="11" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="23"/>
-    </row>
-    <row r="12" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="B11" s="21"/>
+    </row>
+    <row r="12" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="23"/>
-    </row>
-    <row r="13" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="B12" s="21"/>
+    </row>
+    <row r="13" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1020,281 +1009,293 @@
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="8">
         <v>10000</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="C5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="8">
         <v>50000000</v>
       </c>
-      <c r="J5" s="16"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="C6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="8">
         <v>10000000</v>
       </c>
-      <c r="J6" s="16"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="C7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="8">
         <v>10000000</v>
       </c>
-      <c r="J7" s="16"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="10">
+      <c r="C8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="8">
         <v>100000000</v>
       </c>
-      <c r="J8" s="16"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="37" t="s">
+      <c r="C9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="10">
+      <c r="H9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="8">
         <v>500000000</v>
       </c>
-      <c r="J9" s="16"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="10">
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="8">
         <v>100000000</v>
       </c>
-      <c r="J10" s="16"/>
+      <c r="J10" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1312,434 +1313,440 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="34"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="C4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="8">
         <v>10000000</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="10">
+      <c r="C5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="8">
         <v>500000000</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="C6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="8">
         <v>100</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="10">
+      <c r="C7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="8">
         <v>100</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="10">
+      <c r="C8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="8">
         <v>100</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="10">
+      <c r="C9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="8">
         <v>100</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="10">
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="8">
         <v>100</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="10">
+      <c r="C11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="8">
         <v>100</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="10">
+      <c r="C12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="8">
         <v>100</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="10">
+      <c r="C13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="8">
         <v>100</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="10">
+      <c r="C14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="8">
         <v>100</v>
       </c>
-      <c r="J14" s="9"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="10">
+      <c r="C15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="8">
         <v>100</v>
       </c>
-      <c r="J15" s="9"/>
+      <c r="J15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1761,12 +1768,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="64.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="75.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1799,15 +1806,12 @@
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1816,11 +1820,6 @@
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1829,11 +1828,6 @@
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1842,11 +1836,6 @@
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1855,11 +1844,6 @@
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1868,13 +1852,9 @@
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jade/default_settings/Config.xlsx
+++ b/jade/default_settings/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JADE-linux\Code\jade\default_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D2B8DD-D202-4B4E-84A6-D7AA9EAF2538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B34CF9-051B-4BCC-AA54-2308923EC0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="930" windowWidth="18000" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="88">
   <si>
     <t>Suffix</t>
   </si>
@@ -893,7 +893,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,13 +974,17 @@
       <c r="A10" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
@@ -1009,8 +1013,8 @@
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,8 +1317,8 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,7 +1768,9 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1806,9 +1812,6 @@
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1853,7 +1856,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/jade/default_settings/Config.xlsx
+++ b/jade/default_settings/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JADE-linux\Code\jade\default_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B34CF9-051B-4BCC-AA54-2308923EC0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A1B0C4-0C96-4074-BDE8-16CAA089C0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="1275" windowWidth="18000" windowHeight="9360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="90">
   <si>
     <t>Suffix</t>
   </si>
@@ -287,6 +287,12 @@
   </si>
   <si>
     <t>Batch file</t>
+  </si>
+  <si>
+    <t>34y</t>
+  </si>
+  <si>
+    <t>IRDFF-II</t>
   </si>
 </sst>
 </file>
@@ -1766,10 +1772,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,6 +1865,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/jade/default_settings/Config.xlsx
+++ b/jade/default_settings/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JADE-linux\Code\jade\default_settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbradnam\AppData\Local\Temp\scp20607\lustre\home\sbradnam\projects\epsrc\benchmarking\software\JADE\Code\jade\default_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A1B0C4-0C96-4074-BDE8-16CAA089C0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1DC350-8DD5-4E7C-9B47-BE3399C30CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="1275" windowWidth="18000" windowHeight="9360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="91">
   <si>
     <t>Suffix</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>IRDFF-II</t>
+  </si>
+  <si>
+    <t>MPI executable prefix</t>
   </si>
 </sst>
 </file>
@@ -896,10 +899,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,17 +995,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="21"/>
+    </row>
+    <row r="13" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="21"/>
-    </row>
-    <row r="13" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="B13" s="21"/>
+    </row>
+    <row r="14" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B14" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1774,7 +1783,7 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/jade/default_settings/Config.xlsx
+++ b/jade/default_settings/Config.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JADE-linux\Code\jade\default_settings\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85AEEE0-EAAF-422F-B149-F61E582A871A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="1845" yWindow="1515" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="MAIN Config."/>
-    <sheet r:id="rId2" sheetId="2" name="Computational benchmarks"/>
-    <sheet r:id="rId3" sheetId="3" name="Experimental benchmarks"/>
-    <sheet r:id="rId4" sheetId="4" name="Libraries"/>
+    <sheet name="MAIN Config." sheetId="1" r:id="rId1"/>
+    <sheet name="Computational benchmarks" sheetId="2" r:id="rId2"/>
+    <sheet name="Experimental benchmarks" sheetId="3" r:id="rId3"/>
+    <sheet name="Libraries" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -298,7 +304,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
@@ -332,14 +338,14 @@
     <font>
       <b/>
       <sz val="24"/>
-      <color rgb="FF00b050"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF00b050"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -366,7 +372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFd9d9d9"/>
+        <fgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -387,16 +393,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -405,7 +411,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -417,7 +423,7 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -492,125 +498,122 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="35">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -621,10 +624,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -662,71 +665,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -754,7 +757,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -777,11 +780,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -790,13 +793,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -806,7 +809,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -815,7 +818,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -824,7 +827,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -832,10 +835,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -900,123 +903,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="37.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="26" width="73.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="37.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.5703125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="36">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="28"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25">
-      <c r="A2" s="29" t="s">
+      <c r="B1" s="26"/>
+    </row>
+    <row r="2" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="23.25">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="23.25">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="23.25">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="23.25">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="23.25">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="23.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="23.25">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="23.25">
-      <c r="A10" s="34" t="s">
+    <row r="10" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="21">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="23.25">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="21">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="23.25">
-      <c r="A12" s="34" t="s">
+    <row r="12" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="23.25">
-      <c r="A13" s="34" t="s">
+      <c r="B12" s="21"/>
+    </row>
+    <row r="13" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="24">
-      <c r="A14" s="35" t="s">
+      <c r="B13" s="21"/>
+    </row>
+    <row r="14" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="36"/>
+      <c r="B14" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1027,299 +1032,299 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I1:I1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="25" width="38.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="10.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="26" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="38" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="27">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30"/>
+    </row>
+    <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="21" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="8">
         <v>10000</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="14">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="C5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="8">
         <v>50000000</v>
       </c>
-      <c r="J5" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="23" t="s">
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="13" t="s">
+      <c r="C6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="8">
         <v>10000000</v>
       </c>
-      <c r="J6" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="23" t="s">
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="13" t="s">
+      <c r="C7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="8">
         <v>10000000</v>
       </c>
-      <c r="J7" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="23" t="s">
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="14">
+      <c r="C8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="8">
         <v>100000000</v>
       </c>
-      <c r="J8" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="23" t="s">
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="13" t="s">
+      <c r="C9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="14">
+      <c r="H9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="8">
         <v>500000000</v>
       </c>
-      <c r="J9" s="24"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="23" t="s">
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="14">
+      <c r="C10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="8">
         <v>100000000</v>
       </c>
-      <c r="J10" s="24"/>
+      <c r="J10" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1331,447 +1336,446 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="42.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="42.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="35.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="28"/>
+    </row>
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="11" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="32"/>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="13" t="s">
+      <c r="C4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="14">
-        <v>10000000</v>
-      </c>
-      <c r="J4" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="13" t="s">
+      <c r="I4" s="8">
+        <v>50000000</v>
+      </c>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="14">
-        <v>500000000</v>
-      </c>
-      <c r="J5" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="13" t="s">
+      <c r="C5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="14">
-        <v>100</v>
-      </c>
-      <c r="J6" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="13" t="s">
+      <c r="C6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="14">
-        <v>100</v>
-      </c>
-      <c r="J7" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="13" t="s">
+      <c r="C7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="14">
-        <v>100</v>
-      </c>
-      <c r="J8" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="13" t="s">
+      <c r="C8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="14">
-        <v>100</v>
-      </c>
-      <c r="J9" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="13" t="s">
+      <c r="C9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="14">
-        <v>100</v>
-      </c>
-      <c r="J10" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="13" t="s">
+      <c r="C10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1000000000</v>
+      </c>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="14">
-        <v>100</v>
-      </c>
-      <c r="J11" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="13" t="s">
+      <c r="C11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="14">
-        <v>100</v>
-      </c>
-      <c r="J12" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="13" t="s">
+      <c r="C12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="14">
-        <v>100</v>
-      </c>
-      <c r="J13" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="13" t="s">
+      <c r="C13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="14">
-        <v>100</v>
-      </c>
-      <c r="J14" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="13" t="s">
+      <c r="C14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="14">
-        <v>100</v>
-      </c>
-      <c r="J15" s="13"/>
+      <c r="C15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="J15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1783,7 +1787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1793,16 +1797,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="64.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="64.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="75.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="64.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1825,98 +1828,64 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    </row>
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jade/default_settings/Config.xlsx
+++ b/jade/default_settings/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JADE-linux\Code\jade\default_settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\laghida\Documents\GitHub\JADE\Code\jade\default_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85AEEE0-EAAF-422F-B149-F61E582A871A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B858AE16-F30E-4D5F-BD59-0003F1A8EECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="1515" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="96">
   <si>
     <t>Suffix</t>
   </si>
@@ -299,6 +299,18 @@
   </si>
   <si>
     <t>Batch file</t>
+  </si>
+  <si>
+    <t>99c</t>
+  </si>
+  <si>
+    <t>D1SUNED (FENDL 3.1d+EAF2007)</t>
+  </si>
+  <si>
+    <t>93c</t>
+  </si>
+  <si>
+    <t>D1SUNED (FENDL 3.2b+DECAY2020)</t>
   </si>
 </sst>
 </file>
@@ -913,19 +925,19 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.54296875" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="25" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="26"/>
     </row>
-    <row r="2" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
         <v>72</v>
       </c>
@@ -933,7 +945,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
         <v>74</v>
       </c>
@@ -941,7 +953,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
         <v>76</v>
       </c>
@@ -949,7 +961,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="19" t="s">
         <v>78</v>
       </c>
@@ -957,7 +969,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="19" t="s">
         <v>80</v>
       </c>
@@ -965,7 +977,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="22" t="s">
         <v>82</v>
       </c>
@@ -973,7 +985,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="22" t="s">
         <v>84</v>
       </c>
@@ -981,7 +993,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="22" t="s">
         <v>85</v>
       </c>
@@ -989,7 +1001,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="22" t="s">
         <v>87</v>
       </c>
@@ -997,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="22" t="s">
         <v>88</v>
       </c>
@@ -1005,19 +1017,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="22" t="s">
         <v>89</v>
       </c>
       <c r="B12" s="21"/>
     </row>
-    <row r="13" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="22" t="s">
         <v>90</v>
       </c>
       <c r="B13" s="21"/>
     </row>
-    <row r="14" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="23" t="s">
         <v>91</v>
       </c>
@@ -1042,19 +1054,19 @@
       <selection activeCell="I3" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="38" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="27" t="s">
         <v>56</v>
       </c>
@@ -1068,7 +1080,7 @@
       <c r="I1" s="29"/>
       <c r="J1" s="30"/>
     </row>
-    <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="31" t="s">
         <v>23</v>
       </c>
@@ -1082,7 +1094,7 @@
       <c r="I2" s="33"/>
       <c r="J2" s="34"/>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
@@ -1114,7 +1126,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>57</v>
       </c>
@@ -1146,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>59</v>
       </c>
@@ -1176,7 +1188,7 @@
       </c>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>61</v>
       </c>
@@ -1206,7 +1218,7 @@
       </c>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>63</v>
       </c>
@@ -1236,7 +1248,7 @@
       </c>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>65</v>
       </c>
@@ -1266,7 +1278,7 @@
       </c>
       <c r="J8" s="14"/>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>67</v>
       </c>
@@ -1296,7 +1308,7 @@
       </c>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
@@ -1342,22 +1354,22 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.54296875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="28" t="s">
         <v>22</v>
       </c>
@@ -1371,7 +1383,7 @@
       <c r="I1" s="29"/>
       <c r="J1" s="28"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="32" t="s">
         <v>23</v>
       </c>
@@ -1385,7 +1397,7 @@
       <c r="I2" s="33"/>
       <c r="J2" s="32"/>
     </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
@@ -1417,7 +1429,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
@@ -1447,7 +1459,7 @@
       </c>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
@@ -1477,7 +1489,7 @@
       </c>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
@@ -1507,7 +1519,7 @@
       </c>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
@@ -1537,7 +1549,7 @@
       </c>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -1567,7 +1579,7 @@
       </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>42</v>
       </c>
@@ -1597,7 +1609,7 @@
       </c>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
@@ -1627,7 +1639,7 @@
       </c>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>46</v>
       </c>
@@ -1657,7 +1669,7 @@
       </c>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>48</v>
       </c>
@@ -1687,7 +1699,7 @@
       </c>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>50</v>
       </c>
@@ -1717,7 +1729,7 @@
       </c>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>52</v>
       </c>
@@ -1747,7 +1759,7 @@
       </c>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>54</v>
       </c>
@@ -1791,21 +1803,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="64.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="75.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.08984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="64.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1828,7 +1842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1836,7 +1850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1844,7 +1858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1852,7 +1866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1860,7 +1874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1868,7 +1882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1879,12 +1893,28 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/jade/default_settings/Config.xlsx
+++ b/jade/default_settings/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JADE-linux\Code\jade\default_settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\laghida\Documents\GitHub\JADE\Code\jade\default_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85AEEE0-EAAF-422F-B149-F61E582A871A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22F5AA9-7A97-4F75-A46E-1A65723AF609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="1515" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="93">
   <si>
     <t>Suffix</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>Batch file</t>
+  </si>
+  <si>
+    <t>NEA token</t>
   </si>
 </sst>
 </file>
@@ -907,25 +910,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.54296875" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="25" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="26"/>
     </row>
-    <row r="2" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
         <v>72</v>
       </c>
@@ -933,7 +936,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
         <v>74</v>
       </c>
@@ -941,7 +944,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
         <v>76</v>
       </c>
@@ -949,7 +952,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="19" t="s">
         <v>78</v>
       </c>
@@ -957,7 +960,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="19" t="s">
         <v>80</v>
       </c>
@@ -965,7 +968,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="22" t="s">
         <v>82</v>
       </c>
@@ -973,7 +976,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="22" t="s">
         <v>84</v>
       </c>
@@ -981,7 +984,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="22" t="s">
         <v>85</v>
       </c>
@@ -989,7 +992,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="22" t="s">
         <v>87</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="22" t="s">
         <v>88</v>
       </c>
@@ -1005,23 +1008,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="22" t="s">
         <v>89</v>
       </c>
       <c r="B12" s="21"/>
     </row>
-    <row r="13" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="22" t="s">
         <v>90</v>
       </c>
       <c r="B13" s="21"/>
     </row>
-    <row r="14" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+    <row r="14" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="21"/>
+    </row>
+    <row r="15" spans="1:2" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1042,19 +1051,19 @@
       <selection activeCell="I3" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="38" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.81640625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="27" t="s">
         <v>56</v>
       </c>
@@ -1068,7 +1077,7 @@
       <c r="I1" s="29"/>
       <c r="J1" s="30"/>
     </row>
-    <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="31" t="s">
         <v>23</v>
       </c>
@@ -1082,7 +1091,7 @@
       <c r="I2" s="33"/>
       <c r="J2" s="34"/>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
@@ -1114,7 +1123,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>57</v>
       </c>
@@ -1146,7 +1155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>59</v>
       </c>
@@ -1176,7 +1185,7 @@
       </c>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>61</v>
       </c>
@@ -1206,7 +1215,7 @@
       </c>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>63</v>
       </c>
@@ -1236,7 +1245,7 @@
       </c>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>65</v>
       </c>
@@ -1266,7 +1275,7 @@
       </c>
       <c r="J8" s="14"/>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>67</v>
       </c>
@@ -1296,7 +1305,7 @@
       </c>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
@@ -1342,22 +1351,22 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.54296875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="28" t="s">
         <v>22</v>
       </c>
@@ -1371,7 +1380,7 @@
       <c r="I1" s="29"/>
       <c r="J1" s="28"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="32" t="s">
         <v>23</v>
       </c>
@@ -1385,7 +1394,7 @@
       <c r="I2" s="33"/>
       <c r="J2" s="32"/>
     </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
@@ -1417,7 +1426,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
@@ -1447,7 +1456,7 @@
       </c>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
@@ -1477,7 +1486,7 @@
       </c>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
@@ -1507,7 +1516,7 @@
       </c>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
@@ -1537,7 +1546,7 @@
       </c>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -1567,7 +1576,7 @@
       </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>42</v>
       </c>
@@ -1597,7 +1606,7 @@
       </c>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
@@ -1627,7 +1636,7 @@
       </c>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>46</v>
       </c>
@@ -1657,7 +1666,7 @@
       </c>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>48</v>
       </c>
@@ -1687,7 +1696,7 @@
       </c>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>50</v>
       </c>
@@ -1717,7 +1726,7 @@
       </c>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>52</v>
       </c>
@@ -1747,7 +1756,7 @@
       </c>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>54</v>
       </c>
@@ -1795,17 +1804,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="64.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="75.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="64.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1828,7 +1837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1836,7 +1845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1844,7 +1853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1852,7 +1861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1860,7 +1869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1868,7 +1877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1879,7 +1888,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>

--- a/jade/default_settings/Config.xlsx
+++ b/jade/default_settings/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\laghida\Documents\GitHub\JADE\Code\jade\default_settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avalenti\AppData\Local\Temp\scp20465\lustre\home\avalenti\JADE\Code\jade\default_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B858AE16-F30E-4D5F-BD59-0003F1A8EECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389DC4C9-CB37-4FF9-AEBB-823E946AC73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40530" yWindow="2490" windowWidth="23655" windowHeight="17835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="98">
   <si>
     <t>Suffix</t>
   </si>
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t>D1SUNED (FENDL 3.2b+DECAY2020)</t>
+  </si>
+  <si>
+    <t>Simple_Tokamak</t>
+  </si>
+  <si>
+    <t>Simple Tokamak benchmark</t>
   </si>
 </sst>
 </file>
@@ -925,19 +931,19 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.54296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.5703125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="25" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="26"/>
     </row>
-    <row r="2" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>72</v>
       </c>
@@ -945,7 +951,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>74</v>
       </c>
@@ -953,7 +959,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>76</v>
       </c>
@@ -961,7 +967,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>78</v>
       </c>
@@ -969,7 +975,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>80</v>
       </c>
@@ -977,7 +983,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>82</v>
       </c>
@@ -985,7 +991,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>84</v>
       </c>
@@ -993,7 +999,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>85</v>
       </c>
@@ -1001,7 +1007,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>87</v>
       </c>
@@ -1009,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>88</v>
       </c>
@@ -1017,19 +1023,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>89</v>
       </c>
       <c r="B12" s="21"/>
     </row>
-    <row r="13" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>90</v>
       </c>
       <c r="B13" s="21"/>
     </row>
-    <row r="14" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>91</v>
       </c>
@@ -1048,25 +1054,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.81640625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="27" t="s">
         <v>56</v>
       </c>
@@ -1080,7 +1086,7 @@
       <c r="I1" s="29"/>
       <c r="J1" s="30"/>
     </row>
-    <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>23</v>
       </c>
@@ -1094,7 +1100,7 @@
       <c r="I2" s="33"/>
       <c r="J2" s="34"/>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>24</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>57</v>
       </c>
@@ -1158,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>59</v>
       </c>
@@ -1188,7 +1194,7 @@
       </c>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>61</v>
       </c>
@@ -1218,7 +1224,7 @@
       </c>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>63</v>
       </c>
@@ -1248,7 +1254,7 @@
       </c>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>65</v>
       </c>
@@ -1278,7 +1284,7 @@
       </c>
       <c r="J8" s="14"/>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>67</v>
       </c>
@@ -1308,7 +1314,7 @@
       </c>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>69</v>
       </c>
@@ -1337,6 +1343,35 @@
         <v>100000000</v>
       </c>
       <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="10">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1358,18 +1393,18 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.54296875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="28" t="s">
         <v>22</v>
       </c>
@@ -1383,7 +1418,7 @@
       <c r="I1" s="29"/>
       <c r="J1" s="28"/>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>23</v>
       </c>
@@ -1397,7 +1432,7 @@
       <c r="I2" s="33"/>
       <c r="J2" s="32"/>
     </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
@@ -1429,7 +1464,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
@@ -1459,7 +1494,7 @@
       </c>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
@@ -1489,7 +1524,7 @@
       </c>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
@@ -1519,7 +1554,7 @@
       </c>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
@@ -1549,7 +1584,7 @@
       </c>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>40</v>
       </c>
@@ -1579,7 +1614,7 @@
       </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>42</v>
       </c>
@@ -1609,7 +1644,7 @@
       </c>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
@@ -1639,7 +1674,7 @@
       </c>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>46</v>
       </c>
@@ -1669,7 +1704,7 @@
       </c>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>48</v>
       </c>
@@ -1699,7 +1734,7 @@
       </c>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>50</v>
       </c>
@@ -1729,7 +1764,7 @@
       </c>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>52</v>
       </c>
@@ -1759,7 +1794,7 @@
       </c>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>54</v>
       </c>
@@ -1805,21 +1840,21 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.08984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="64.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="75.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1842,7 +1877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1850,7 +1885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1858,7 +1893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1866,7 +1901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1874,7 +1909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1882,7 +1917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1893,7 +1928,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1901,7 +1936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>92</v>
       </c>
@@ -1909,7 +1944,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>94</v>
       </c>

--- a/jade/default_settings/Config.xlsx
+++ b/jade/default_settings/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avalenti\AppData\Local\Temp\scp20465\lustre\home\avalenti\JADE\Code\jade\default_settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JADE-linux\Code\jade\default_settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389DC4C9-CB37-4FF9-AEBB-823E946AC73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A32ECE1-7F95-469E-85EF-F0D81060A825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40530" yWindow="2490" windowWidth="23655" windowHeight="17835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN Config." sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="109">
   <si>
     <t>Suffix</t>
   </si>
@@ -317,6 +317,39 @@
   </si>
   <si>
     <t>Simple Tokamak benchmark</t>
+  </si>
+  <si>
+    <t>FNG SiC</t>
+  </si>
+  <si>
+    <t>FNG-SiC</t>
+  </si>
+  <si>
+    <t>FNG HCPB</t>
+  </si>
+  <si>
+    <t>FNG-HCPB</t>
+  </si>
+  <si>
+    <t>ASPIS PCA Replica Flux</t>
+  </si>
+  <si>
+    <t>ASPIS-PCA-Replica_flux</t>
+  </si>
+  <si>
+    <t>ASPIS PCA Replica RR</t>
+  </si>
+  <si>
+    <t>ASPIS-PCA-Replica_RR</t>
+  </si>
+  <si>
+    <t>FNG Stainless Steel</t>
+  </si>
+  <si>
+    <t>FNG-SS</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1089,7 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -1387,16 +1420,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="9" customWidth="1"/>
     <col min="3" max="3" width="13.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
@@ -1823,6 +1856,156 @@
         <v>100000000</v>
       </c>
       <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="10">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="10">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="10">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="10">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="10">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
